--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43316,6 +43316,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>278900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43351,6 +43351,41 @@
         <v>278900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>5008400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43386,6 +43386,41 @@
         <v>5008400</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>11281300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43421,6 +43421,41 @@
         <v>11281300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>10010900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43456,6 +43456,41 @@
         <v>10010900</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>7300300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43491,6 +43491,41 @@
         <v>7300300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>2033000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43526,6 +43526,41 @@
         <v>2033000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2654000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43561,6 +43561,41 @@
         <v>2654000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1087600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43596,6 +43596,41 @@
         <v>1087600</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>929800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43631,6 +43631,41 @@
         <v>929800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>4930400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43666,6 +43666,41 @@
         <v>4930400</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>941700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43701,6 +43701,41 @@
         <v>941700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>2298300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43736,6 +43736,76 @@
         <v>2298300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>2677100</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>2116500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43806,6 +43806,76 @@
         <v>2116500</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>711000</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>255000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43876,6 +43876,41 @@
         <v>255000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>240500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43911,6 +43911,41 @@
         <v>240500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>4227600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43946,6 +43946,41 @@
         <v>4227600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>3853000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43981,6 +43981,41 @@
         <v>3853000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>2713000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44016,6 +44016,76 @@
         <v>2713000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1275700</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1458400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44086,6 +44086,41 @@
         <v>1458400</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1171700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44121,6 +44121,41 @@
         <v>1171700</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>3236900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2430"/>
+  <dimension ref="A1:I2431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85806,6 +85806,41 @@
         <v>3236900</v>
       </c>
     </row>
+    <row r="2431">
+      <c r="A2431" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2431" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2431" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2431" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2431" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2431" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2431" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2431" t="n">
+        <v>3427500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2431"/>
+  <dimension ref="A1:I2432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85841,6 +85841,41 @@
         <v>3427500</v>
       </c>
     </row>
+    <row r="2432">
+      <c r="A2432" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2432" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2432" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2432" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2432" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2432" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2432" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2432" t="n">
+        <v>1417100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2432"/>
+  <dimension ref="A1:I2433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85876,6 +85876,41 @@
         <v>1417100</v>
       </c>
     </row>
+    <row r="2433">
+      <c r="A2433" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2433" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2433" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2433" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2433" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2433" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2433" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2433" t="n">
+        <v>3191000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2433"/>
+  <dimension ref="A1:I2434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85911,6 +85911,41 @@
         <v>3191000</v>
       </c>
     </row>
+    <row r="2434">
+      <c r="A2434" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2434" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2434" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2434" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2434" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2434" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2434" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2434" t="n">
+        <v>1717900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2434"/>
+  <dimension ref="A1:I2435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85946,6 +85946,41 @@
         <v>1717900</v>
       </c>
     </row>
+    <row r="2435">
+      <c r="A2435" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2435" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2435" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2435" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2435" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2435" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2435" t="n">
+        <v>234000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2435"/>
+  <dimension ref="A1:I2436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85981,6 +85981,41 @@
         <v>234000</v>
       </c>
     </row>
+    <row r="2436">
+      <c r="A2436" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2436" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2436" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2436" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2436" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2436" t="n">
+        <v>156000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2436"/>
+  <dimension ref="A1:I2437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86016,6 +86016,41 @@
         <v>156000</v>
       </c>
     </row>
+    <row r="2437">
+      <c r="A2437" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2437" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2437" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2437" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2437" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2437" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2437" t="n">
+        <v>1047000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2437"/>
+  <dimension ref="A1:I2438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86051,6 +86051,41 @@
         <v>1047000</v>
       </c>
     </row>
+    <row r="2438">
+      <c r="A2438" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2438" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2438" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2438" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2438" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2438" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2438" t="n">
+        <v>197100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2438"/>
+  <dimension ref="A1:I2439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86086,6 +86086,41 @@
         <v>197100</v>
       </c>
     </row>
+    <row r="2439">
+      <c r="A2439" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2439" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2439" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2439" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2439" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2439" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2439" t="n">
+        <v>132000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2439"/>
+  <dimension ref="A1:I2440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86121,6 +86121,41 @@
         <v>132000</v>
       </c>
     </row>
+    <row r="2440">
+      <c r="A2440" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2440" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2440" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2440" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2440" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2440" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2440" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2440" t="n">
+        <v>801300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2440"/>
+  <dimension ref="A1:I2441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86156,6 +86156,41 @@
         <v>801300</v>
       </c>
     </row>
+    <row r="2441">
+      <c r="A2441" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2441" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2441" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2441" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2441" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2441" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2441" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2441" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2441"/>
+  <dimension ref="A1:I2442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86191,6 +86191,41 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="2442">
+      <c r="A2442" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2442" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2442" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2442" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2442" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2442" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2442" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2442" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2442"/>
+  <dimension ref="A1:I2443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86226,6 +86226,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="2443">
+      <c r="A2443" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2443" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2443" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2443" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2443" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2443" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2443" t="n">
+        <v>1608400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2443"/>
+  <dimension ref="A1:I2444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86261,6 +86261,41 @@
         <v>1608400</v>
       </c>
     </row>
+    <row r="2444">
+      <c r="A2444" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2444" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2444" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2444" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2444" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2444" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2444" t="n">
+        <v>812500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2444"/>
+  <dimension ref="A1:I2445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86296,6 +86296,41 @@
         <v>812500</v>
       </c>
     </row>
+    <row r="2445">
+      <c r="A2445" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2445" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2445" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2445" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2445" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2445" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2445" t="n">
+        <v>67000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2687"/>
+  <dimension ref="A1:I2688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94801,6 +94801,41 @@
         <v>67000</v>
       </c>
     </row>
+    <row r="2688">
+      <c r="A2688" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2688" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2688" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2688" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2688" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2688" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2688" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2688" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2688" t="n">
+        <v>363100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2688"/>
+  <dimension ref="A1:I2689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94836,6 +94836,41 @@
         <v>363100</v>
       </c>
     </row>
+    <row r="2689">
+      <c r="A2689" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2689" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2689" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2689" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2689" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2689" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2689" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2689" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2689" t="n">
+        <v>1009200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2689"/>
+  <dimension ref="A1:I2690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94871,6 +94871,41 @@
         <v>1009200</v>
       </c>
     </row>
+    <row r="2690">
+      <c r="A2690" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2690" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2690" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2690" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2690" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2690" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2690" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2690" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2690" t="n">
+        <v>144700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2690"/>
+  <dimension ref="A1:I2691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94906,6 +94906,41 @@
         <v>144700</v>
       </c>
     </row>
+    <row r="2691">
+      <c r="A2691" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2691" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2691" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2691" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2691" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2691" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2691" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2691" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2691" t="n">
+        <v>555100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2691"/>
+  <dimension ref="A1:I2692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94941,6 +94941,43 @@
         <v>555100</v>
       </c>
     </row>
+    <row r="2692">
+      <c r="A2692" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2692" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2692" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2692" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2692" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2692" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2692" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2692" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2692" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2692"/>
+  <dimension ref="A1:I2693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94978,6 +94978,41 @@
         </is>
       </c>
     </row>
+    <row r="2693">
+      <c r="A2693" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2693" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2693" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2693" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2693" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2693" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2693" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2693" t="n">
+        <v>178000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2693"/>
+  <dimension ref="A1:I2694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95013,6 +95013,41 @@
         <v>178000</v>
       </c>
     </row>
+    <row r="2694">
+      <c r="A2694" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2694" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2694" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2694" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2694" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2694" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2694" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2694" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2694" t="n">
+        <v>152100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2694"/>
+  <dimension ref="A1:I2695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95048,6 +95048,41 @@
         <v>152100</v>
       </c>
     </row>
+    <row r="2695">
+      <c r="A2695" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2695" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2695" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2695" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2695" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2695" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2695" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2695" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2695" t="n">
+        <v>382200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2695"/>
+  <dimension ref="A1:I2696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95083,6 +95083,41 @@
         <v>382200</v>
       </c>
     </row>
+    <row r="2696">
+      <c r="A2696" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2696" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2696" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2696" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2696" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2696" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2696" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2696" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2696" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2696"/>
+  <dimension ref="A1:I2697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95118,6 +95118,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="2697">
+      <c r="A2697" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2697" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2697" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2697" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2697" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2697" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2697" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2697" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2697" t="n">
+        <v>80700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2697"/>
+  <dimension ref="A1:I2699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95153,6 +95153,76 @@
         <v>80700</v>
       </c>
     </row>
+    <row r="2698">
+      <c r="A2698" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2698" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2698" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2698" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2698" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2698" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2698" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2698" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2698" t="n">
+        <v>402200</v>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2699" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2699" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2699" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2699" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2699" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2699" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2699" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2699" t="n">
+        <v>254400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2699"/>
+  <dimension ref="A1:I2700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95223,6 +95223,41 @@
         <v>254400</v>
       </c>
     </row>
+    <row r="2700">
+      <c r="A2700" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2700" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2700" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2700" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2700" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2700" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2700" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2700" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2700" t="n">
+        <v>300600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2700"/>
+  <dimension ref="A1:I2703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95258,6 +95258,111 @@
         <v>300600</v>
       </c>
     </row>
+    <row r="2701">
+      <c r="A2701" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2701" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2701" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2701" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2701" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2701" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2701" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2701" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2701" t="n">
+        <v>1433700</v>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2702" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2702" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2702" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2702" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2702" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2702" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2702" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2702" t="n">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2703" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2703" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2703" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2703" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2703" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2703" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2703" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2703" t="n">
+        <v>114000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2703"/>
+  <dimension ref="A1:I2704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95363,6 +95363,41 @@
         <v>114000</v>
       </c>
     </row>
+    <row r="2704">
+      <c r="A2704" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2704" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2704" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2704" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2704" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2704" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2704" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2704" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2704" t="n">
+        <v>73000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2704"/>
+  <dimension ref="A1:I2705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95398,6 +95398,41 @@
         <v>73000</v>
       </c>
     </row>
+    <row r="2705">
+      <c r="A2705" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2705" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2705" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2705" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2705" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2705" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2705" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2705" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2705" t="n">
+        <v>776400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0074.xlsx
+++ b/data/0074.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2705"/>
+  <dimension ref="A1:I2708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95433,6 +95433,111 @@
         <v>776400</v>
       </c>
     </row>
+    <row r="2706">
+      <c r="A2706" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2706" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2706" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2706" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2706" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2706" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2706" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2706" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2706" t="n">
+        <v>130100</v>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2707" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2707" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2707" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2707" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2707" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2707" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2707" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2707" t="n">
+        <v>517500</v>
+      </c>
+    </row>
+    <row r="2708">
+      <c r="A2708" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2708" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2708" t="inlineStr">
+        <is>
+          <t>0074</t>
+        </is>
+      </c>
+      <c r="D2708" t="inlineStr">
+        <is>
+          <t>GOCEAN</t>
+        </is>
+      </c>
+      <c r="E2708" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2708" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2708" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2708" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2708" t="n">
+        <v>53500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
